--- a/public/template/template_budget.xlsx
+++ b/public/template/template_budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itd.magang01\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTLILY\Project\consumable\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -87,7 +87,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,14 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="50.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
@@ -388,7 +391,7 @@
     <col min="17" max="17" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +404,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
